--- a/results/mp/deberta/corona/confidence/168/stop-words-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-0.15/avg_0.003_scores.xlsx
@@ -118,13 +118,13 @@
     <t>heroes</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>hope</t>
   </si>
   <si>
     <t>share</t>
@@ -1136,25 +1136,25 @@
         <v>27</v>
       </c>
       <c r="K18">
-        <v>0.6753246753246753</v>
+        <v>0.6527196652719666</v>
       </c>
       <c r="L18">
         <v>156</v>
       </c>
       <c r="M18">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="N18">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1318,25 +1318,25 @@
         <v>34</v>
       </c>
       <c r="K25">
-        <v>0.5304878048780488</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="L25">
-        <v>174</v>
+        <v>27</v>
       </c>
       <c r="M25">
-        <v>186</v>
+        <v>27</v>
       </c>
       <c r="N25">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>154</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1344,25 +1344,25 @@
         <v>35</v>
       </c>
       <c r="K26">
-        <v>0.5294117647058824</v>
+        <v>0.515625</v>
       </c>
       <c r="L26">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="M26">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1370,25 +1370,25 @@
         <v>36</v>
       </c>
       <c r="K27">
-        <v>0.515625</v>
+        <v>0.5117647058823529</v>
       </c>
       <c r="L27">
-        <v>33</v>
+        <v>174</v>
       </c>
       <c r="M27">
-        <v>34</v>
+        <v>174</v>
       </c>
       <c r="N27">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>31</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="10:17">
